--- a/Base_comp.xlsx
+++ b/Base_comp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG33"/>
+  <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Age_x</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -471,17 +471,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>90s_x</t>
+          <t>90s</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Gls_x</t>
+          <t>Gls</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Ast_x</t>
+          <t>Ast</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>PK_x</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>xG_x</t>
+          <t>xG</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>npxG_x</t>
+          <t>npxG</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>xAG_x</t>
+          <t>xAG</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PrgP_x</t>
+          <t>PrgP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -551,305 +551,225 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Age_y</t>
+          <t>Sh</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>90s_y</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Gls_y</t>
+          <t>SoT%</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Sh</t>
+          <t>Sh/90</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>SoT/90</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>SoT%</t>
+          <t>G/Sh</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Sh/90</t>
+          <t>G/SoT</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>SoT/90</t>
+          <t>Dist</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>G/Sh</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>G/SoT</t>
+          <t>Pkatt</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Dist</t>
+          <t>npxG/Sh</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>FK_x</t>
+          <t>G-xG</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>PK_y</t>
+          <t>np:G-xG</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Pkatt</t>
+          <t>Cmp</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>xG_y</t>
+          <t>Att</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>npxG_y</t>
+          <t>Cmp%</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>npxG/Sh</t>
+          <t>TotDist</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>G-xG</t>
+          <t>PrgDist</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>np:G-xG</t>
+          <t>Cmp.1</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Age_x</t>
+          <t>Att.1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>90s_x</t>
+          <t>Cmp%.1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Cmp_x</t>
+          <t>Cmp.2</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Att_x</t>
+          <t>Att.2</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Cmp%</t>
+          <t>Cmp%.2</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>TotDist</t>
+          <t>Cmp.3</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>PrgDist</t>
+          <t>Att.3</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Cmp.1</t>
+          <t>Cmp%.3</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Att.1</t>
+          <t>xA</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Cmp%.1</t>
+          <t>A-xAG</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Cmp.2</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Att.2</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Cmp%.2</t>
+          <t>PPA</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Cmp.3</t>
+          <t>CrsPA</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Att.3</t>
+          <t>Live</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Cmp%.3</t>
+          <t>Dead</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Ast_y</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>xAG_y</t>
+          <t>Sw</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>xA</t>
+          <t>Crs</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>A-xAG</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>CK</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>In</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>PPA</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>CrsPA</t>
+          <t>Str</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>PrgP_y</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>Age_y</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>90s_y</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>Att_y</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>Live</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>Dead</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>FK_y</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>Sw</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>Crs</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>CK</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>Str</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>Cmp_y</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Blocks</t>
         </is>
@@ -935,14 +855,12 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -950,14 +868,14 @@
         <v>0</v>
       </c>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -966,74 +884,76 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+        <v>82.96760710553815</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15481</v>
+      </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>10673</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AS2" t="n">
-        <v>38</v>
+        <v>98.8929889298893</v>
       </c>
       <c r="AT2" t="n">
-        <v>794</v>
+        <v>299</v>
       </c>
       <c r="AU2" t="n">
-        <v>957</v>
+        <v>308</v>
       </c>
       <c r="AV2" t="n">
-        <v>82.96760710553815</v>
+        <v>97.07792207792207</v>
       </c>
       <c r="AW2" t="n">
-        <v>15481</v>
+        <v>146</v>
       </c>
       <c r="AX2" t="n">
-        <v>10673</v>
+        <v>295</v>
       </c>
       <c r="AY2" t="n">
-        <v>268</v>
+        <v>49.49152542372882</v>
       </c>
       <c r="AZ2" t="n">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>98.8929889298893</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
-        <v>97.07792207792207</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>295</v>
+        <v>608</v>
       </c>
       <c r="BG2" t="n">
-        <v>49.49152542372882</v>
+        <v>348</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
@@ -1042,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1054,57 +974,9 @@
         <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>38</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>957</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>608</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>348</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>64</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>794</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,186 +1060,138 @@
         <v>126</v>
       </c>
       <c r="Y3" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="Z3" t="n">
-        <v>34.2</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>48.46153846153846</v>
       </c>
       <c r="AB3" t="n">
-        <v>130</v>
+        <v>3.801169590643275</v>
       </c>
       <c r="AC3" t="n">
-        <v>63</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="AD3" t="n">
-        <v>48.46153846153846</v>
+        <v>0.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.801169590643275</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.842105263157895</v>
+        <v>16.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4126984126984127</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>16.6</v>
+        <v>0.1415384615384615</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="AM3" t="n">
-        <v>18.4</v>
+        <v>574</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.4</v>
+        <v>75.78397212543554</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1415384615384615</v>
+        <v>6116</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.600000000000001</v>
+        <v>832</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7.6</v>
+        <v>263</v>
       </c>
       <c r="AR3" t="n">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="AS3" t="n">
-        <v>34.2</v>
+        <v>82.44514106583071</v>
       </c>
       <c r="AT3" t="n">
-        <v>435</v>
+        <v>113</v>
       </c>
       <c r="AU3" t="n">
-        <v>574</v>
+        <v>143</v>
       </c>
       <c r="AV3" t="n">
-        <v>75.78397212543554</v>
+        <v>79.02097902097903</v>
       </c>
       <c r="AW3" t="n">
-        <v>6116</v>
+        <v>30</v>
       </c>
       <c r="AX3" t="n">
-        <v>832</v>
+        <v>40</v>
       </c>
       <c r="AY3" t="n">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AZ3" t="n">
-        <v>319</v>
+        <v>1.1</v>
       </c>
       <c r="BA3" t="n">
-        <v>82.44514106583071</v>
+        <v>1.6</v>
       </c>
       <c r="BB3" t="n">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="n">
-        <v>79.02097902097903</v>
+        <v>5</v>
       </c>
       <c r="BE3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="BF3" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="BG3" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
         <v>3</v>
       </c>
-      <c r="BI3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>20</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>29</v>
-      </c>
       <c r="BQ3" t="n">
-        <v>33</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>574</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>500</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>71</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>12</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>435</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CG3" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1451,186 +1275,138 @@
         <v>36</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="AB4" t="n">
+        <v>0.835820895522388</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2985074626865671</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2268</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2458</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>92.27013832384053</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34408</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>10297</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1269</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1336</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>94.98502994011976</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>769</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>810</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>94.93827160493828</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>149</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>82.77777777777777</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="BB4" t="n">
         <v>28</v>
       </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.835820895522388</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.2985074626865671</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2268</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2458</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>92.27013832384053</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>34408</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10297</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>1269</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1336</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>94.98502994011976</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>769</v>
-      </c>
       <c r="BC4" t="n">
-        <v>810</v>
+        <v>219</v>
       </c>
       <c r="BD4" t="n">
-        <v>94.93827160493828</v>
+        <v>11</v>
       </c>
       <c r="BE4" t="n">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="BF4" t="n">
-        <v>180</v>
+        <v>2404</v>
       </c>
       <c r="BG4" t="n">
-        <v>82.77777777777777</v>
+        <v>50</v>
       </c>
       <c r="BH4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.7</v>
+        <v>19</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.7</v>
+        <v>6</v>
       </c>
       <c r="BL4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="BQ4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>2458</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>2404</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>50</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>44</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>19</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>2268</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>4</v>
-      </c>
-      <c r="CG4" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1714,186 +1490,138 @@
         <v>111</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.5</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1818181818181818</v>
+        <v>24.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>24.4</v>
+        <v>0.075</v>
       </c>
       <c r="AJ5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1816</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2076</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>87.47591522157995</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>25129</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>7946</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1112</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1201</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>92.5895087427144</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>538</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>598</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>89.96655518394648</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>82</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>129</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>63.56589147286822</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>68</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>220</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>52</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1922</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>143</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI5" t="n">
         <v>6</v>
       </c>
-      <c r="AK5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1816</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2076</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>87.47591522157995</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>25129</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7946</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1112</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1201</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>92.5895087427144</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>538</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>598</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>89.96655518394648</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>82</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>129</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>63.56589147286822</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BJ5" t="n">
-        <v>5.8</v>
+        <v>60</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.2</v>
+        <v>30</v>
       </c>
       <c r="BL5" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="BM5" t="n">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="BN5" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="BO5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BP5" t="n">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="BQ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>2076</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>1922</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>143</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>79</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>11</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>60</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>30</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>1816</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="CG5" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1977,186 +1705,138 @@
         <v>138</v>
       </c>
       <c r="Y6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>31.4</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>0.9235668789808917</v>
       </c>
       <c r="AC6" t="n">
+        <v>0.2229299363057325</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.05862068965517241</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1642</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1948</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>84.29158110882958</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>22145</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>7169</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1027</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1108</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>92.68953068592057</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>492</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>576</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>85.41666666666666</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>127</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>40.15748031496063</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1617</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>323</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>77</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>273</v>
+      </c>
+      <c r="BL6" t="n">
         <v>7</v>
       </c>
-      <c r="AD6" t="n">
-        <v>24.13793103448276</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.9235668789808917</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.2229299363057325</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.05862068965517241</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>31</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1642</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1948</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>84.29158110882958</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>22145</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>7169</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1027</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1108</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>92.68953068592057</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>492</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>576</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>85.41666666666666</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>127</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>40.15748031496063</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>37</v>
-      </c>
       <c r="BM6" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BN6" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="BO6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="BQ6" t="n">
-        <v>31</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>1948</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>1617</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>323</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>43</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>77</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>273</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>7</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>1642</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>8</v>
-      </c>
-      <c r="CG6" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2240,186 +1920,138 @@
         <v>266</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.6</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="AD7" t="n">
-        <v>35</v>
+        <v>0.175</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.351351351351351</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.472972972972973</v>
+        <v>19.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.175</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>19.3</v>
+        <v>0.0675</v>
       </c>
       <c r="AJ7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1535</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>82.97297297297297</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>20108</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5834</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>975</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1060</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>91.98113207547169</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>373</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>455</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81.97802197802197</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>47.01986754966887</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>72</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>118</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1639</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>206</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>172</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>44</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>107</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>39</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="n">
         <v>5</v>
       </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>1535</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1850</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>82.97297297297297</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>20108</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5834</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>975</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1060</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>91.98113207547169</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>373</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>455</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81.97802197802197</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>71</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>47.01986754966887</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>72</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>118</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>171</v>
-      </c>
       <c r="BQ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>1850</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>1639</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>206</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>55</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>8</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>172</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>44</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>107</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>39</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>1535</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>5</v>
-      </c>
-      <c r="CG7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2503,186 +2135,138 @@
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7352941176470589</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1470588235294118</v>
+        <v>10.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.7</v>
+        <v>0.08</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1508</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.6</v>
+        <v>1677</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.6</v>
+        <v>89.92248062015504</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.08</v>
+        <v>27767</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.4</v>
+        <v>10682</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.4</v>
+        <v>640</v>
       </c>
       <c r="AR8" t="n">
-        <v>31</v>
+        <v>666</v>
       </c>
       <c r="AS8" t="n">
-        <v>27.2</v>
+        <v>96.09609609609609</v>
       </c>
       <c r="AT8" t="n">
-        <v>1508</v>
+        <v>650</v>
       </c>
       <c r="AU8" t="n">
-        <v>1677</v>
+        <v>708</v>
       </c>
       <c r="AV8" t="n">
-        <v>89.92248062015504</v>
+        <v>91.80790960451978</v>
       </c>
       <c r="AW8" t="n">
-        <v>27767</v>
+        <v>191</v>
       </c>
       <c r="AX8" t="n">
-        <v>10682</v>
+        <v>258</v>
       </c>
       <c r="AY8" t="n">
-        <v>640</v>
+        <v>74.03100775193798</v>
       </c>
       <c r="AZ8" t="n">
-        <v>666</v>
+        <v>0.7</v>
       </c>
       <c r="BA8" t="n">
-        <v>96.09609609609609</v>
+        <v>-0.1</v>
       </c>
       <c r="BB8" t="n">
-        <v>650</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
-        <v>708</v>
+        <v>91</v>
       </c>
       <c r="BD8" t="n">
-        <v>91.80790960451978</v>
+        <v>1</v>
       </c>
       <c r="BE8" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>258</v>
+        <v>1561</v>
       </c>
       <c r="BG8" t="n">
-        <v>74.03100775193798</v>
+        <v>115</v>
       </c>
       <c r="BH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>1.1</v>
+        <v>14</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.1</v>
+        <v>11</v>
       </c>
       <c r="BL8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="BQ8" t="n">
-        <v>31</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1677</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>1561</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>115</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>103</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>14</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>1508</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2766,28 +2350,28 @@
         <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.9</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>0.5734767025089607</v>
       </c>
       <c r="AC9" t="n">
-        <v>4</v>
+        <v>0.1433691756272402</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5734767025089607</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1433691756272402</v>
+        <v>14.3</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -2796,156 +2380,108 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>14.3</v>
+        <v>0.05625</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1442</v>
       </c>
       <c r="AM9" t="n">
+        <v>1595</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>90.40752351097179</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>26579</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>9369</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>595</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>633</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>93.99684044233807</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>672</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>712</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94.3820224719101</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>154</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>205</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>75.1219512195122</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>1442</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1595</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>90.40752351097179</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>26579</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9369</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>595</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>633</v>
-      </c>
       <c r="BA9" t="n">
-        <v>93.99684044233807</v>
+        <v>-0.6</v>
       </c>
       <c r="BB9" t="n">
-        <v>672</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>712</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>94.3820224719101</v>
+        <v>2</v>
       </c>
       <c r="BE9" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>205</v>
+        <v>1529</v>
       </c>
       <c r="BG9" t="n">
-        <v>75.1219512195122</v>
+        <v>65</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.6</v>
+        <v>19</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.6</v>
+        <v>3</v>
       </c>
       <c r="BL9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="BQ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>1595</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>1529</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>65</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>60</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>1442</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3029,186 +2565,138 @@
         <v>64</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="AB10" t="n">
+        <v>1.277777777777778</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1193</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1365</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>87.3992673992674</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>18051</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>5268</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>634</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>684</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>92.69005847953217</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>433</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>480</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>90.20833333333333</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>93</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>72.04301075268818</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB10" t="n">
         <v>23</v>
       </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>26.08695652173913</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.277777777777778</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1193</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1365</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>87.3992673992674</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>18051</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>5268</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>634</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>684</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>92.69005847953217</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>433</v>
-      </c>
       <c r="BC10" t="n">
-        <v>480</v>
+        <v>93</v>
       </c>
       <c r="BD10" t="n">
-        <v>90.20833333333333</v>
+        <v>21</v>
       </c>
       <c r="BE10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>93</v>
+        <v>1317</v>
       </c>
       <c r="BG10" t="n">
-        <v>72.04301075268818</v>
+        <v>44</v>
       </c>
       <c r="BH10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="BL10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="BQ10" t="n">
-        <v>20</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>1365</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>1317</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>44</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>31</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>13</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>1193</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>4</v>
-      </c>
-      <c r="CG10" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3292,186 +2780,138 @@
         <v>129</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.9</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="AB11" t="n">
-        <v>31</v>
+        <v>1.731843575418994</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>0.558659217877095</v>
       </c>
       <c r="AD11" t="n">
-        <v>32.25806451612903</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.731843575418994</v>
+        <v>0.1</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.558659217877095</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.5</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.2</v>
+        <v>944</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.2</v>
+        <v>83.36864406779661</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.07096774193548387</v>
+        <v>10084</v>
       </c>
       <c r="AP11" t="n">
-        <v>-1.2</v>
+        <v>2355</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-1.2</v>
+        <v>537</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>591</v>
       </c>
       <c r="AS11" t="n">
-        <v>17.9</v>
+        <v>90.86294416243655</v>
       </c>
       <c r="AT11" t="n">
-        <v>787</v>
+        <v>206</v>
       </c>
       <c r="AU11" t="n">
-        <v>944</v>
+        <v>248</v>
       </c>
       <c r="AV11" t="n">
-        <v>83.36864406779661</v>
+        <v>83.06451612903226</v>
       </c>
       <c r="AW11" t="n">
-        <v>10084</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>2355</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>537</v>
+        <v>44</v>
       </c>
       <c r="AZ11" t="n">
-        <v>591</v>
+        <v>2.3</v>
       </c>
       <c r="BA11" t="n">
-        <v>90.86294416243655</v>
+        <v>1</v>
       </c>
       <c r="BB11" t="n">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="BD11" t="n">
-        <v>83.06451612903226</v>
+        <v>17</v>
       </c>
       <c r="BE11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BF11" t="n">
-        <v>25</v>
+        <v>805</v>
       </c>
       <c r="BG11" t="n">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="BH11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2.3</v>
+        <v>42</v>
       </c>
       <c r="BK11" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="BL11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="BQ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>944</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>805</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>135</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>42</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>133</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>787</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CG11" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3555,186 +2995,138 @@
         <v>175</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.8</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.696629213483146</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.07708333333333334</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>524</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>665</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>78.79699248120301</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7122</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1760</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>334</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>385</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>86.75324675324674</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>132</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>163</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>80.98159509202453</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>59.52380952380953</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>25</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>653</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH12" t="n">
         <v>3</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2.696629213483146</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.6741573033707865</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.07708333333333334</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>524</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>665</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>78.79699248120301</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7122</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>1760</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>334</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>385</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>86.75324675324674</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>132</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>163</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>80.98159509202453</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>25</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>42</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>59.52380952380953</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>5</v>
       </c>
       <c r="BI12" t="n">
         <v>3</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.2</v>
+        <v>52</v>
       </c>
       <c r="BK12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="BM12" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="BN12" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="BO12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>18</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>665</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>653</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>12</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>52</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>9</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>524</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3818,186 +3210,138 @@
         <v>76</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AD13" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5555555555555556</v>
+        <v>18.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>18.6</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>604</v>
       </c>
       <c r="AN13" t="n">
-        <v>2</v>
+        <v>77.64900662251655</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.09523809523809523</v>
+        <v>6799</v>
       </c>
       <c r="AP13" t="n">
-        <v>-2</v>
+        <v>1880</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-2</v>
+        <v>274</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="AS13" t="n">
-        <v>12.6</v>
+        <v>90.42904290429043</v>
       </c>
       <c r="AT13" t="n">
-        <v>469</v>
+        <v>131</v>
       </c>
       <c r="AU13" t="n">
-        <v>604</v>
+        <v>166</v>
       </c>
       <c r="AV13" t="n">
-        <v>77.64900662251655</v>
+        <v>78.91566265060241</v>
       </c>
       <c r="AW13" t="n">
-        <v>6799</v>
+        <v>30</v>
       </c>
       <c r="AX13" t="n">
-        <v>1880</v>
+        <v>63</v>
       </c>
       <c r="AY13" t="n">
-        <v>274</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="AZ13" t="n">
-        <v>303</v>
+        <v>1.4</v>
       </c>
       <c r="BA13" t="n">
-        <v>90.42904290429043</v>
+        <v>-1.4</v>
       </c>
       <c r="BB13" t="n">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="BD13" t="n">
-        <v>78.91566265060241</v>
+        <v>10</v>
       </c>
       <c r="BE13" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="BF13" t="n">
-        <v>63</v>
+        <v>546</v>
       </c>
       <c r="BG13" t="n">
-        <v>47.61904761904761</v>
+        <v>56</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.4</v>
+        <v>36</v>
       </c>
       <c r="BK13" t="n">
-        <v>-1.4</v>
+        <v>32</v>
       </c>
       <c r="BL13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BM13" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="BN13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BO13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="BQ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>604</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>546</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>56</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>36</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>32</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>469</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4081,186 +3425,138 @@
         <v>102</v>
       </c>
       <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19.23076923076923</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4273504273504274</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>252</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>361</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>69.80609418282549</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3447</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>706</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>149</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>183</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>81.4207650273224</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41.37931034482759</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>357</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ14" t="n">
         <v>21</v>
       </c>
-      <c r="Z14" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>19.23076923076923</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.4273504273504274</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>252</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>361</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>69.80609418282549</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3447</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>706</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>149</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>183</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81.4207650273224</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>29</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>41.37931034482759</v>
-      </c>
-      <c r="BH14" t="n">
+      <c r="BK14" t="n">
         <v>3</v>
       </c>
-      <c r="BI14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0.8</v>
-      </c>
       <c r="BL14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="BQ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>361</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>357</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>252</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG14" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4344,28 +3640,28 @@
         <v>40</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.1</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>0.2479338842975207</v>
       </c>
       <c r="AD15" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9090909090909092</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.2479338842975207</v>
+        <v>24.3</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -4374,156 +3670,108 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>24.3</v>
+        <v>0.03636363636363637</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.4</v>
+        <v>970</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.4</v>
+        <v>85.77319587628865</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03636363636363637</v>
+        <v>12170</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0.4</v>
+        <v>3559</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.4</v>
+        <v>471</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>510</v>
       </c>
       <c r="AS15" t="n">
-        <v>12.1</v>
+        <v>92.35294117647059</v>
       </c>
       <c r="AT15" t="n">
-        <v>832</v>
+        <v>293</v>
       </c>
       <c r="AU15" t="n">
-        <v>970</v>
+        <v>338</v>
       </c>
       <c r="AV15" t="n">
-        <v>85.77319587628865</v>
+        <v>86.68639053254438</v>
       </c>
       <c r="AW15" t="n">
-        <v>12170</v>
+        <v>35</v>
       </c>
       <c r="AX15" t="n">
-        <v>3559</v>
+        <v>63</v>
       </c>
       <c r="AY15" t="n">
-        <v>471</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="AZ15" t="n">
-        <v>510</v>
+        <v>1.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>92.35294117647059</v>
+        <v>0.9</v>
       </c>
       <c r="BB15" t="n">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="BC15" t="n">
-        <v>338</v>
+        <v>85</v>
       </c>
       <c r="BD15" t="n">
-        <v>86.68639053254438</v>
+        <v>22</v>
       </c>
       <c r="BE15" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="BF15" t="n">
-        <v>63</v>
+        <v>932</v>
       </c>
       <c r="BG15" t="n">
-        <v>55.55555555555556</v>
+        <v>36</v>
       </c>
       <c r="BH15" t="n">
         <v>2</v>
       </c>
       <c r="BI15" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1.5</v>
+        <v>38</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="BL15" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BM15" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="BN15" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="BO15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="BQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>970</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>932</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>36</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>38</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>12</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>832</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG15" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4607,127 +3855,127 @@
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="AB16" t="n">
+        <v>0.8860759493670886</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.2531645569620253</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>348</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>83.65384615384616</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6031</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2773</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>164</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>178</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>92.13483146067416</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>149</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>167</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>89.22155688622755</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>386</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
         <v>7</v>
       </c>
-      <c r="AC16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.8860759493670886</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.2531645569620253</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>348</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>416</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>83.65384615384616</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6031</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>2773</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>164</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>178</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>92.13483146067416</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>149</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>167</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>89.22155688622755</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>29</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>58</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>50</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ16" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -4736,57 +3984,9 @@
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="BQ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>416</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>386</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>29</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>348</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,14 +4070,12 @@
         <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -4885,14 +4083,14 @@
         <v>0</v>
       </c>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -4901,145 +4099,99 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="inlineStr"/>
+        <v>85.15815085158151</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6036</v>
+      </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2207</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="AR17" t="n">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>93.47826086956522</v>
       </c>
       <c r="AT17" t="n">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="AU17" t="n">
-        <v>411</v>
+        <v>142</v>
       </c>
       <c r="AV17" t="n">
-        <v>85.15815085158151</v>
+        <v>90.14084507042254</v>
       </c>
       <c r="AW17" t="n">
-        <v>6036</v>
+        <v>41</v>
       </c>
       <c r="AX17" t="n">
-        <v>2207</v>
+        <v>61</v>
       </c>
       <c r="AY17" t="n">
-        <v>172</v>
+        <v>67.21311475409836</v>
       </c>
       <c r="AZ17" t="n">
-        <v>184</v>
+        <v>0.4</v>
       </c>
       <c r="BA17" t="n">
-        <v>93.47826086956522</v>
+        <v>0.6</v>
       </c>
       <c r="BB17" t="n">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="BD17" t="n">
-        <v>90.14084507042254</v>
+        <v>5</v>
       </c>
       <c r="BE17" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>61</v>
+        <v>384</v>
       </c>
       <c r="BG17" t="n">
-        <v>67.21311475409836</v>
+        <v>25</v>
       </c>
       <c r="BH17" t="n">
         <v>1</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
         <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="BQ17" t="n">
-        <v>31</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>411</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>384</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>25</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>25</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>350</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5123,186 +4275,138 @@
         <v>95</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="AB18" t="n">
-        <v>36</v>
+        <v>3.364485981308412</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>1.02803738317757</v>
       </c>
       <c r="AD18" t="n">
-        <v>30.55555555555556</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.364485981308412</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.02803738317757</v>
+        <v>24.9</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.05555555555555555</v>
+        <v>4</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>24.9</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AJ18" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>431</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>558</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>77.24014336917563</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6040</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1553</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>262</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>296</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>88.51351351351352</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>114</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>147</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>77.55102040816327</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>513</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>43</v>
+      </c>
+      <c r="BH18" t="n">
         <v>4</v>
       </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>431</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>558</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>77.24014336917563</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6040</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1553</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>262</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>296</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>88.51351351351352</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>114</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>147</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>77.55102040816327</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>26</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>60</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>43.33333333333334</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>2</v>
-      </c>
       <c r="BI18" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1.7</v>
+        <v>57</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="BL18" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BM18" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="BN18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BO18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP18" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="BQ18" t="n">
-        <v>25</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>558</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>513</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>43</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>57</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>32</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>15</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>431</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5386,28 +4490,28 @@
         <v>53</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>1.325301204819277</v>
       </c>
       <c r="AC19" t="n">
-        <v>5</v>
+        <v>0.6024096385542168</v>
       </c>
       <c r="AD19" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.325301204819277</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.6024096385542168</v>
+        <v>24.8</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -5416,156 +4520,108 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>24.8</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.6</v>
+        <v>465</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.6</v>
+        <v>73.76344086021506</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.05454545454545454</v>
+        <v>5017</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.6</v>
+        <v>1809</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-0.6</v>
+        <v>211</v>
       </c>
       <c r="AR19" t="n">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="AS19" t="n">
-        <v>8.300000000000001</v>
+        <v>88.65546218487394</v>
       </c>
       <c r="AT19" t="n">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="AU19" t="n">
-        <v>465</v>
+        <v>145</v>
       </c>
       <c r="AV19" t="n">
-        <v>73.76344086021506</v>
+        <v>75.86206896551724</v>
       </c>
       <c r="AW19" t="n">
-        <v>5017</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>1809</v>
+        <v>56</v>
       </c>
       <c r="AY19" t="n">
-        <v>211</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="AZ19" t="n">
-        <v>238</v>
+        <v>0.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>88.65546218487394</v>
+        <v>0.7</v>
       </c>
       <c r="BB19" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
-        <v>75.86206896551724</v>
+        <v>9</v>
       </c>
       <c r="BE19" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BF19" t="n">
-        <v>56</v>
+        <v>385</v>
       </c>
       <c r="BG19" t="n">
-        <v>28.57142857142857</v>
+        <v>79</v>
       </c>
       <c r="BH19" t="n">
         <v>1</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.5</v>
+        <v>48</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.7</v>
+        <v>68</v>
       </c>
       <c r="BL19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BM19" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="BN19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BP19" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="BQ19" t="n">
-        <v>28</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>465</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>385</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>79</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>48</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>68</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>343</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5649,184 +4705,136 @@
         <v>33</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
+        <v>0.4109589041095891</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>344</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>409</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>84.10757946210269</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>4982</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1467</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>204</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>218</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>93.57798165137615</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>113</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>132</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>85.60606060606061</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>52.94117647058824</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD20" t="n">
         <v>3</v>
       </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.4109589041095891</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>344</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>409</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>84.10757946210269</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4982</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1467</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>204</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>218</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>93.57798165137615</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>113</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>132</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>85.60606060606061</v>
-      </c>
       <c r="BE20" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="BF20" t="n">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="BG20" t="n">
-        <v>52.94117647058824</v>
+        <v>65</v>
       </c>
       <c r="BH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.6</v>
+        <v>54</v>
       </c>
       <c r="BL20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BM20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="BQ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>409</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>342</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>65</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>54</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>344</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5910,184 +4918,136 @@
         <v>1</v>
       </c>
       <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.1234567901234568</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>396</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>476</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>83.19327731092437</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7537</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2727</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>164</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>91.11111111111111</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>169</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>193</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>87.56476683937824</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>54</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>86</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>62.7906976744186</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC21" t="n">
         <v>38</v>
       </c>
-      <c r="Z21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.1234567901234568</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>396</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>476</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>83.19327731092437</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>7537</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>2727</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>164</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>180</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>91.11111111111111</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>169</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>193</v>
-      </c>
       <c r="BD21" t="n">
-        <v>87.56476683937824</v>
+        <v>1</v>
       </c>
       <c r="BE21" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>86</v>
+        <v>456</v>
       </c>
       <c r="BG21" t="n">
-        <v>62.7906976744186</v>
+        <v>20</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BL21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" t="n">
         <v>0</v>
       </c>
       <c r="BP21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>38</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>476</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>456</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>20</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>20</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>12</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>396</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6171,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>2</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -6188,96 +5148,96 @@
       <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
-      <c r="AH22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
       <c r="AI22" t="n">
-        <v>9.199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.2</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.2</v>
+        <v>77.54237288135593</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.1</v>
+        <v>3536</v>
       </c>
       <c r="AP22" t="n">
-        <v>-0.2</v>
+        <v>1431</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-0.2</v>
+        <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.2</v>
+        <v>94.36619718309859</v>
       </c>
       <c r="AT22" t="n">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="AU22" t="n">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="AV22" t="n">
-        <v>77.54237288135593</v>
+        <v>78.37837837837837</v>
       </c>
       <c r="AW22" t="n">
-        <v>3536</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>1431</v>
+        <v>44</v>
       </c>
       <c r="AY22" t="n">
-        <v>67</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="AZ22" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>94.36619718309859</v>
+        <v>0</v>
       </c>
       <c r="BB22" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
-        <v>78.37837837837837</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="BG22" t="n">
-        <v>54.54545454545454</v>
+        <v>11</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -6289,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BN22" t="n">
         <v>0</v>
@@ -6298,57 +5258,9 @@
         <v>0</v>
       </c>
       <c r="BP22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>30</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>236</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>225</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>11</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>11</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>183</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6432,16 +5344,16 @@
         <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0.2702702702702702</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -6449,18 +5361,18 @@
       <c r="AD23" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" t="n">
-        <v>0.2702702702702702</v>
-      </c>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
       </c>
-      <c r="AH23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
       <c r="AI23" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -6469,147 +5381,99 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>84.7926267281106</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>2492</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AR23" t="n">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.7</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="AT23" t="n">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="AU23" t="n">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AV23" t="n">
-        <v>84.7926267281106</v>
+        <v>82.05128205128204</v>
       </c>
       <c r="AW23" t="n">
-        <v>2492</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>832</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>105</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="AZ23" t="n">
-        <v>111</v>
+        <v>0.6</v>
       </c>
       <c r="BA23" t="n">
-        <v>94.5945945945946</v>
+        <v>-0.2</v>
       </c>
       <c r="BB23" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="BC23" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="n">
-        <v>82.05128205128204</v>
+        <v>3</v>
       </c>
       <c r="BE23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="BG23" t="n">
-        <v>46.15384615384615</v>
+        <v>38</v>
       </c>
       <c r="BH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="BK23" t="n">
-        <v>-0.2</v>
+        <v>35</v>
       </c>
       <c r="BL23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO23" t="n">
         <v>0</v>
       </c>
       <c r="BP23" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>29</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>217</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>179</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>38</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>9</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>35</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>184</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6693,186 +5557,138 @@
         <v>36</v>
       </c>
       <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2.075471698113208</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.509433962264151</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>173</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>81.50289017341041</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1840</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>337</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AT24" t="n">
         <v>35</v>
       </c>
-      <c r="Z24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AU24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>92.10526315789474</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>159</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM24" t="n">
         <v>3</v>
       </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>72.72727272727273</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2.075471698113208</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.509433962264151</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>141</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>173</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>81.50289017341041</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1840</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>337</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>88</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>88</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>35</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>38</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>92.10526315789474</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>6</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>10</v>
-      </c>
       <c r="BN24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO24" t="n">
         <v>0</v>
       </c>
       <c r="BP24" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>35</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>173</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>159</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>13</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>8</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>141</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6956,184 +5772,136 @@
         <v>13</v>
       </c>
       <c r="Y25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>123</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>60.97560975609756</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1161</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>53</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>86.79245283018868</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>60.52631578947368</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX25" t="n">
         <v>24</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AY25" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
         <v>3</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>123</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>60.97560975609756</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>1161</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>53</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>86.79245283018868</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>38</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>60.52631578947368</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>24</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>20.83333333333334</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0.1</v>
-      </c>
       <c r="BJ25" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="BK25" t="n">
-        <v>-0.1</v>
+        <v>19</v>
       </c>
       <c r="BL25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BQ25" t="n">
-        <v>24</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>123</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>95</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>27</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>15</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>6</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>75</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7217,28 +5985,28 @@
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.4</v>
+        <v>31.6</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -7247,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>31.6</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -7256,147 +6024,99 @@
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1526</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>87.67123287671232</v>
       </c>
       <c r="AT26" t="n">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="AU26" t="n">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="AV26" t="n">
-        <v>83.33333333333334</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="AW26" t="n">
-        <v>1526</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>596</v>
+        <v>6</v>
       </c>
       <c r="AY26" t="n">
-        <v>64</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="AZ26" t="n">
-        <v>73</v>
+        <v>0.1</v>
       </c>
       <c r="BA26" t="n">
-        <v>87.67123287671232</v>
+        <v>-0.1</v>
       </c>
       <c r="BB26" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="BC26" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
-        <v>80.95238095238095</v>
+        <v>2</v>
       </c>
       <c r="BE26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BF26" t="n">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="BG26" t="n">
-        <v>66.66666666666666</v>
+        <v>19</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
       </c>
       <c r="BI26" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="BK26" t="n">
-        <v>-0.1</v>
+        <v>17</v>
       </c>
       <c r="BL26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>138</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>119</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>19</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>115</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7480,109 +6200,109 @@
         <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AB27" t="n">
-        <v>8</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="AC27" t="n">
-        <v>2</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>0.125</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.428571428571429</v>
+        <v>18.7</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI27" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.5</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.5</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.0625</v>
+        <v>338</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.5</v>
+        <v>88</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5</v>
+        <v>22</v>
       </c>
       <c r="AR27" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.4</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="AT27" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>72.72727272727273</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="AW27" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="AX27" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>0.1</v>
       </c>
       <c r="BA27" t="n">
-        <v>84.61538461538461</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD27" t="n">
-        <v>54.54545454545454</v>
+        <v>1</v>
       </c>
       <c r="BE27" t="n">
         <v>0</v>
       </c>
       <c r="BF27" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="BG27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
@@ -7591,75 +6311,27 @@
         <v>0</v>
       </c>
       <c r="BJ27" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BK27" t="n">
         <v>0</v>
       </c>
       <c r="BL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" t="n">
         <v>0</v>
       </c>
       <c r="BP27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>38</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>44</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>41</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>32</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7743,186 +6415,138 @@
         <v>15</v>
       </c>
       <c r="Y28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>861</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>172</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>47</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>85.45454545454545</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU28" t="n">
         <v>22</v>
       </c>
-      <c r="Z28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0.05714285714285715</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>69</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>90</v>
-      </c>
       <c r="AV28" t="n">
-        <v>76.66666666666667</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="AW28" t="n">
-        <v>861</v>
+        <v>2</v>
       </c>
       <c r="AX28" t="n">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="AY28" t="n">
-        <v>47</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="AZ28" t="n">
-        <v>55</v>
+        <v>0.2</v>
       </c>
       <c r="BA28" t="n">
-        <v>85.45454545454545</v>
+        <v>-0.2</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BC28" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
-        <v>72.72727272727273</v>
+        <v>3</v>
       </c>
       <c r="BE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="BG28" t="n">
-        <v>66.66666666666666</v>
+        <v>1</v>
       </c>
       <c r="BH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI28" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BJ28" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="BK28" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BL28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BQ28" t="n">
-        <v>22</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>90</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>89</v>
-      </c>
-      <c r="BU28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE28" t="n">
-        <v>69</v>
-      </c>
-      <c r="CF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8006,122 +6630,122 @@
         <v>15</v>
       </c>
       <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AL29" t="n">
         <v>19</v>
       </c>
-      <c r="Z29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC29" t="n">
+      <c r="AM29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>67.85714285714286</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>234</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AT29" t="n">
         <v>4</v>
       </c>
-      <c r="AD29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>19</v>
-      </c>
       <c r="AU29" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
-        <v>67.85714285714286</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="AW29" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BA29" t="n">
-        <v>81.25</v>
+        <v>-0.4</v>
       </c>
       <c r="BB29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BG29" t="n">
         <v>4</v>
       </c>
-      <c r="BC29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="n">
         <v>0</v>
       </c>
       <c r="BI29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK29" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="BL29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM29" t="n">
         <v>0</v>
@@ -8136,54 +6760,6 @@
         <v>1</v>
       </c>
       <c r="BQ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>28</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>23</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>4</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE29" t="n">
-        <v>19</v>
-      </c>
-      <c r="CF29" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8267,14 +6843,12 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
@@ -8282,14 +6856,14 @@
         <v>0</v>
       </c>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="n">
         <v>0</v>
@@ -8298,68 +6872,70 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="inlineStr"/>
+        <v>73.91304347826086</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>530</v>
+      </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.9</v>
+        <v>78.26086956521739</v>
       </c>
       <c r="AT30" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AV30" t="n">
-        <v>73.91304347826086</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="AW30" t="n">
-        <v>530</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BA30" t="n">
-        <v>78.26086956521739</v>
+        <v>0</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
-        <v>64.70588235294117</v>
+        <v>0</v>
       </c>
       <c r="BE30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF30" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="BG30" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="BH30" t="n">
         <v>0</v>
@@ -8371,13 +6947,13 @@
         <v>0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" t="n">
         <v>0</v>
       </c>
       <c r="BM30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BN30" t="n">
         <v>0</v>
@@ -8386,57 +6962,9 @@
         <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BQ30" t="n">
-        <v>27</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="BS30" t="n">
-        <v>46</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>44</v>
-      </c>
-      <c r="BU30" t="n">
-        <v>2</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE30" t="n">
-        <v>34</v>
-      </c>
-      <c r="CF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8520,186 +7048,138 @@
         <v>9</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AB31" t="n">
-        <v>2</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AD31" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.222222222222222</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.222222222222222</v>
+        <v>10.6</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.8</v>
+        <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.8</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.4</v>
+        <v>938</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.2</v>
+        <v>184</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>43</v>
       </c>
       <c r="AR31" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.9</v>
+        <v>97.72727272727273</v>
       </c>
       <c r="AT31" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>82.35294117647058</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="AW31" t="n">
-        <v>938</v>
+        <v>2</v>
       </c>
       <c r="AX31" t="n">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="AY31" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AZ31" t="n">
-        <v>44</v>
+        <v>0.7</v>
       </c>
       <c r="BA31" t="n">
-        <v>97.72727272727273</v>
+        <v>2.2</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="BD31" t="n">
-        <v>67.85714285714286</v>
+        <v>2</v>
       </c>
       <c r="BE31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF31" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="BG31" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="BH31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI31" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="BK31" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>25</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="BS31" t="n">
-        <v>85</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>82</v>
-      </c>
-      <c r="BU31" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY31" t="n">
-        <v>7</v>
-      </c>
-      <c r="BZ31" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE31" t="n">
-        <v>70</v>
-      </c>
-      <c r="CF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8783,125 +7263,125 @@
         <v>11</v>
       </c>
       <c r="Y32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
         <v>20</v>
       </c>
-      <c r="Z32" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AR32" t="n">
         <v>20</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.7</v>
+        <v>85</v>
       </c>
       <c r="AT32" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AV32" t="n">
-        <v>58.82352941176471</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="AW32" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AY32" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="BA32" t="n">
-        <v>85</v>
+        <v>-0.1</v>
       </c>
       <c r="BB32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BD32" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="BE32" t="n">
         <v>0</v>
       </c>
       <c r="BF32" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="BG32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH32" t="n">
         <v>0</v>
       </c>
       <c r="BI32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="BK32" t="n">
-        <v>-0.1</v>
+        <v>5</v>
       </c>
       <c r="BL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN32" t="n">
         <v>0</v>
@@ -8910,57 +7390,9 @@
         <v>0</v>
       </c>
       <c r="BP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ32" t="n">
-        <v>20</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BS32" t="n">
-        <v>34</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>28</v>
-      </c>
-      <c r="BU32" t="n">
-        <v>5</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY32" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ32" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE32" t="n">
-        <v>20</v>
-      </c>
-      <c r="CF32" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9044,108 +7476,108 @@
         <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN33" t="n">
         <v>100</v>
       </c>
-      <c r="AE33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AO33" t="n">
-        <v>0.1</v>
+        <v>125</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.9</v>
+        <v>22</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="AR33" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.4</v>
+        <v>100</v>
       </c>
       <c r="AT33" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AU33" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AV33" t="n">
         <v>100</v>
       </c>
       <c r="AW33" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
         <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG33" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
       <c r="BH33" t="n">
         <v>0</v>
       </c>
@@ -9171,57 +7603,9 @@
         <v>0</v>
       </c>
       <c r="BP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ33" t="n">
-        <v>32</v>
-      </c>
-      <c r="BR33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BS33" t="n">
-        <v>13</v>
-      </c>
-      <c r="BT33" t="n">
-        <v>13</v>
-      </c>
-      <c r="BU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE33" t="n">
-        <v>13</v>
-      </c>
-      <c r="CF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG33" t="n">
         <v>0</v>
       </c>
     </row>
